--- a/database/industries/kaghaz/chekapa/cashflow/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/cashflow/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83363B05-5F42-46FF-8B93-D4D54749A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -213,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -411,7 +412,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -423,7 +424,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -470,6 +471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -505,6 +523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -656,12 +691,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -670,7 +705,7 @@
     <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -679,7 +714,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -690,7 +725,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -701,7 +736,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +745,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -721,7 +756,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -732,7 +767,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -741,7 +776,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -762,7 +797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -783,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -792,7 +827,7 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
@@ -803,7 +838,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>17</v>
       </c>
@@ -824,7 +859,7 @@
         <v>-1649921</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
@@ -845,7 +880,7 @@
         <v>362840</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
@@ -866,7 +901,7 @@
         <v>-1287081</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -877,7 +912,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>21</v>
       </c>
@@ -898,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
@@ -919,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>23</v>
       </c>
@@ -940,7 +975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>24</v>
       </c>
@@ -961,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>25</v>
       </c>
@@ -982,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
@@ -1003,7 +1038,7 @@
         <v>858241</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>28</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1066,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>30</v>
       </c>
@@ -1087,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>31</v>
       </c>
@@ -1108,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1129,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>34</v>
       </c>
@@ -1171,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>35</v>
       </c>
@@ -1192,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>36</v>
       </c>
@@ -1213,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>37</v>
       </c>
@@ -1234,7 +1269,7 @@
         <v>858241</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>-428840</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>39</v>
       </c>
@@ -1266,7 +1301,7 @@
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>40</v>
       </c>
@@ -1287,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>41</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>43</v>
       </c>
@@ -1329,7 +1364,7 @@
         <v>37437</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -1350,7 +1385,7 @@
         <v>-37437</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>45</v>
       </c>
@@ -1371,7 +1406,7 @@
         <v>2650278</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>46</v>
       </c>
@@ -1392,7 +1427,7 @@
         <v>-1952584</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>47</v>
       </c>
@@ -1413,7 +1448,7 @@
         <v>-300483</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>49</v>
       </c>
@@ -1455,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>50</v>
       </c>
@@ -1476,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>51</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>52</v>
       </c>
@@ -1518,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>53</v>
       </c>
@@ -1539,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>54</v>
       </c>
@@ -1560,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>55</v>
       </c>
@@ -1581,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>56</v>
       </c>
@@ -1602,7 +1637,7 @@
         <v>-4686</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>57</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>392525</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>58</v>
       </c>
@@ -1644,7 +1679,7 @@
         <v>-36315</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>59</v>
       </c>
@@ -1665,7 +1700,7 @@
         <v>251457</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>60</v>
       </c>
@@ -1686,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>61</v>
       </c>
@@ -1707,7 +1742,7 @@
         <v>215142</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>62</v>
       </c>
@@ -1728,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>

--- a/database/industries/kaghaz/chekapa/cashflow/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83363B05-5F42-46FF-8B93-D4D54749A4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344E9CD-060B-444B-8E41-8F342C155904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/05</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/08</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/11</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/02</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/05</t>
   </si>
   <si>
@@ -52,13 +64,28 @@
     <t>فصل سوم منتهی به 1401/05</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1400-06-31 (3)</t>
+  </si>
+  <si>
+    <t>1400-12-09 (9)</t>
+  </si>
+  <si>
+    <t>1400-12-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-05-12 (4)</t>
+  </si>
+  <si>
     <t>1401-06-30 (2)</t>
   </si>
   <si>
-    <t>1401-06-30 (7)</t>
+    <t>1401-11-24 (8)</t>
   </si>
   <si>
     <t>1400-12-28</t>
@@ -68,6 +95,9 @@
   </si>
   <si>
     <t>1401-06-30</t>
+  </si>
+  <si>
+    <t>1401-11-24</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -692,20 +722,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H57"/>
+  <dimension ref="B1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -713,8 +746,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -724,8 +762,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -735,8 +778,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -744,8 +792,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -755,8 +808,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +824,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -775,8 +838,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -796,29 +864,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -826,10 +924,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -837,73 +940,123 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>802533</v>
+      </c>
+      <c r="E12" s="15">
+        <v>902520</v>
+      </c>
+      <c r="F12" s="15">
+        <v>179607</v>
+      </c>
+      <c r="G12" s="15">
+        <v>755968</v>
+      </c>
+      <c r="H12" s="15">
         <v>374652</v>
       </c>
-      <c r="E12" s="15">
+      <c r="I12" s="15">
         <v>40445</v>
       </c>
-      <c r="F12" s="15">
+      <c r="J12" s="15">
         <v>197836</v>
       </c>
-      <c r="G12" s="15">
+      <c r="K12" s="15">
         <v>2917191</v>
       </c>
-      <c r="H12" s="15">
+      <c r="L12" s="15">
         <v>-1649921</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M12" s="15">
+        <v>1140784</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
+        <v>-30500</v>
+      </c>
+      <c r="E13" s="11">
+        <v>-3772</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-15352</v>
+      </c>
+      <c r="G13" s="11">
+        <v>-64648</v>
+      </c>
+      <c r="H13" s="11">
         <v>-10000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="I13" s="11">
         <v>-86550</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
         <v>-280600</v>
       </c>
-      <c r="H13" s="11">
+      <c r="L13" s="11">
         <v>362840</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>-344040</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
+        <v>772033</v>
+      </c>
+      <c r="E14" s="17">
+        <v>898748</v>
+      </c>
+      <c r="F14" s="17">
+        <v>164255</v>
+      </c>
+      <c r="G14" s="17">
+        <v>691320</v>
+      </c>
+      <c r="H14" s="17">
         <v>364652</v>
       </c>
-      <c r="E14" s="17">
+      <c r="I14" s="17">
         <v>-46105</v>
       </c>
-      <c r="F14" s="17">
+      <c r="J14" s="17">
         <v>197836</v>
       </c>
-      <c r="G14" s="17">
+      <c r="K14" s="17">
         <v>2636591</v>
       </c>
-      <c r="H14" s="17">
+      <c r="L14" s="17">
         <v>-1287081</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M14" s="17">
+        <v>796744</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -911,52 +1064,87 @@
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
         <v>0</v>
       </c>
       <c r="E16" s="15">
-        <v>0</v>
+        <v>152735</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
       </c>
       <c r="G16" s="15">
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
+        <v>0</v>
+      </c>
+      <c r="I16" s="15">
+        <v>0</v>
+      </c>
+      <c r="J16" s="15">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
         <v>8900</v>
       </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L16" s="15">
+        <v>0</v>
+      </c>
+      <c r="M16" s="15">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
+        <v>-2640</v>
+      </c>
+      <c r="E17" s="11">
+        <v>-217157</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11">
+        <v>-7481</v>
+      </c>
+      <c r="H17" s="11">
         <v>-1320</v>
       </c>
-      <c r="E17" s="11">
+      <c r="I17" s="11">
         <v>-2372</v>
       </c>
-      <c r="F17" s="11">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
         <v>-153265</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>-1096837</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15">
@@ -974,17 +1162,32 @@
       <c r="H18" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="15">
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -995,52 +1198,97 @@
       <c r="H19" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11">
+        <v>0</v>
+      </c>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>0</v>
+      </c>
+      <c r="E20" s="15">
+        <v>-98</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>-921</v>
+      </c>
+      <c r="H20" s="15">
         <v>-394</v>
       </c>
-      <c r="E20" s="15">
+      <c r="I20" s="15">
         <v>-407</v>
       </c>
-      <c r="F20" s="15">
-        <v>0</v>
-      </c>
-      <c r="G20" s="15">
+      <c r="J20" s="15">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
         <v>-2280</v>
       </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L20" s="15">
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
+        <v>0</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0</v>
+      </c>
+      <c r="F21" s="11">
+        <v>0</v>
+      </c>
+      <c r="G21" s="11">
+        <v>-337913</v>
+      </c>
+      <c r="H21" s="11">
         <v>-22034</v>
       </c>
-      <c r="E21" s="11">
+      <c r="I21" s="11">
         <v>-788432</v>
       </c>
-      <c r="F21" s="11">
+      <c r="J21" s="11">
         <v>-858462</v>
       </c>
-      <c r="G21" s="11">
+      <c r="K21" s="11">
         <v>221</v>
       </c>
-      <c r="H21" s="11">
+      <c r="L21" s="11">
         <v>858241</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M21" s="11">
+        <v>-510513</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
@@ -1058,10 +1306,25 @@
       <c r="H22" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="15">
+        <v>0</v>
+      </c>
+      <c r="J22" s="15">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="15">
+        <v>0</v>
+      </c>
+      <c r="M22" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
@@ -1079,31 +1342,61 @@
       <c r="H23" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="11">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11">
+        <v>0</v>
+      </c>
+      <c r="K23" s="11">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0</v>
+      </c>
+      <c r="M23" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
         <v>0</v>
       </c>
       <c r="E24" s="15">
+        <v>-402237</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0</v>
+      </c>
+      <c r="H24" s="15">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
         <v>-39</v>
       </c>
-      <c r="F24" s="15">
-        <v>0</v>
-      </c>
-      <c r="G24" s="15">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J24" s="15">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="15">
+        <v>0</v>
+      </c>
+      <c r="M24" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
@@ -1121,10 +1414,25 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="15">
@@ -1142,10 +1450,25 @@
       <c r="H26" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="15">
+        <v>0</v>
+      </c>
+      <c r="J26" s="15">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="15">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1163,10 +1486,25 @@
       <c r="H27" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="11">
+        <v>0</v>
+      </c>
+      <c r="J27" s="11">
+        <v>0</v>
+      </c>
+      <c r="K27" s="11">
+        <v>0</v>
+      </c>
+      <c r="L27" s="11">
+        <v>0</v>
+      </c>
+      <c r="M27" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="15">
@@ -1184,10 +1522,25 @@
       <c r="H28" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="15">
+        <v>0</v>
+      </c>
+      <c r="J28" s="15">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="15">
+        <v>0</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11">
@@ -1205,10 +1558,25 @@
       <c r="H29" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="11">
+        <v>0</v>
+      </c>
+      <c r="J29" s="11">
+        <v>0</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11">
+        <v>0</v>
+      </c>
+      <c r="M29" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
@@ -1226,73 +1594,133 @@
       <c r="H30" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="15">
+        <v>0</v>
+      </c>
+      <c r="J30" s="15">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="15">
+        <v>0</v>
+      </c>
+      <c r="M30" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
+        <v>1351</v>
+      </c>
+      <c r="E31" s="11">
+        <v>4478</v>
+      </c>
+      <c r="F31" s="11">
+        <v>347</v>
+      </c>
+      <c r="G31" s="11">
+        <v>833</v>
+      </c>
+      <c r="H31" s="11">
         <v>1518</v>
       </c>
-      <c r="E31" s="11">
+      <c r="I31" s="11">
         <v>38506</v>
       </c>
-      <c r="F31" s="11">
+      <c r="J31" s="11">
         <v>2605</v>
       </c>
-      <c r="G31" s="11">
+      <c r="K31" s="11">
         <v>788</v>
       </c>
-      <c r="H31" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="L31" s="11">
+        <v>0</v>
+      </c>
+      <c r="M31" s="11">
+        <v>14211</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
+        <v>-489</v>
+      </c>
+      <c r="E32" s="17">
+        <v>-463079</v>
+      </c>
+      <c r="F32" s="17">
+        <v>347</v>
+      </c>
+      <c r="G32" s="17">
+        <v>-345482</v>
+      </c>
+      <c r="H32" s="17">
         <v>-22230</v>
       </c>
-      <c r="E32" s="17">
+      <c r="I32" s="17">
         <v>-752744</v>
       </c>
-      <c r="F32" s="17">
+      <c r="J32" s="17">
         <v>-855857</v>
       </c>
-      <c r="G32" s="17">
+      <c r="K32" s="17">
         <v>-145636</v>
       </c>
-      <c r="H32" s="17">
+      <c r="L32" s="17">
         <v>858241</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M32" s="17">
+        <v>-1592929</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="18" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
+        <v>771544</v>
+      </c>
+      <c r="E33" s="19">
+        <v>435669</v>
+      </c>
+      <c r="F33" s="19">
+        <v>164602</v>
+      </c>
+      <c r="G33" s="19">
+        <v>345838</v>
+      </c>
+      <c r="H33" s="19">
         <v>342422</v>
       </c>
-      <c r="E33" s="19">
+      <c r="I33" s="19">
         <v>-798849</v>
       </c>
-      <c r="F33" s="19">
+      <c r="J33" s="19">
         <v>-658021</v>
       </c>
-      <c r="G33" s="19">
+      <c r="K33" s="19">
         <v>2490955</v>
       </c>
-      <c r="H33" s="19">
+      <c r="L33" s="19">
         <v>-428840</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M33" s="19">
+        <v>-796185</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="13"/>
@@ -1300,10 +1728,15 @@
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
@@ -1321,136 +1754,241 @@
       <c r="H35" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="15">
+        <v>0</v>
+      </c>
+      <c r="J35" s="15">
+        <v>0</v>
+      </c>
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="15">
+        <v>0</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
         <v>0</v>
       </c>
       <c r="E37" s="15">
+        <v>54237</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0</v>
+      </c>
+      <c r="H37" s="15">
+        <v>0</v>
+      </c>
+      <c r="I37" s="15">
         <v>1313429</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="J37" s="15">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
         <v>59487</v>
       </c>
-      <c r="H37" s="15">
+      <c r="L37" s="15">
         <v>37437</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M37" s="15">
+        <v>-37437</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
+        <v>0</v>
+      </c>
+      <c r="E38" s="11">
+        <v>-428254</v>
+      </c>
+      <c r="F38" s="11">
+        <v>0</v>
+      </c>
+      <c r="G38" s="11">
+        <v>-880000</v>
+      </c>
+      <c r="H38" s="11">
         <v>-54999</v>
       </c>
-      <c r="E38" s="11">
+      <c r="I38" s="11">
         <v>-912495</v>
       </c>
-      <c r="F38" s="11">
-        <v>0</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
         <v>-151172</v>
       </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
         <v>-37437</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M38" s="11">
+        <v>37437</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
+        <v>195888</v>
+      </c>
+      <c r="E39" s="15">
+        <v>1838395</v>
+      </c>
+      <c r="F39" s="15">
+        <v>1622133</v>
+      </c>
+      <c r="G39" s="15">
+        <v>2425476</v>
+      </c>
+      <c r="H39" s="15">
         <v>1307688</v>
       </c>
-      <c r="E39" s="15">
+      <c r="I39" s="15">
         <v>2318023</v>
       </c>
-      <c r="F39" s="15">
+      <c r="J39" s="15">
         <v>1988808</v>
       </c>
-      <c r="G39" s="15">
+      <c r="K39" s="15">
         <v>1564278</v>
       </c>
-      <c r="H39" s="15">
+      <c r="L39" s="15">
         <v>2650278</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M39" s="15">
+        <v>2724397</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
+        <v>-777979</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-1194420</v>
+      </c>
+      <c r="F40" s="11">
+        <v>-1790378</v>
+      </c>
+      <c r="G40" s="11">
+        <v>-1773317</v>
+      </c>
+      <c r="H40" s="11">
         <v>-1163623</v>
       </c>
-      <c r="E40" s="11">
+      <c r="I40" s="11">
         <v>-1163268</v>
       </c>
-      <c r="F40" s="11">
+      <c r="J40" s="11">
         <v>-1492064</v>
       </c>
-      <c r="G40" s="11">
+      <c r="K40" s="11">
         <v>-4267868</v>
       </c>
-      <c r="H40" s="11">
+      <c r="L40" s="11">
         <v>-1952584</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M40" s="11">
+        <v>-739037</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>-76073</v>
+      </c>
+      <c r="E41" s="15">
+        <v>-121992</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-118896</v>
+      </c>
+      <c r="G41" s="15">
+        <v>-72971</v>
+      </c>
+      <c r="H41" s="15">
         <v>-99997</v>
       </c>
-      <c r="E41" s="15">
+      <c r="I41" s="15">
         <v>-38012</v>
       </c>
-      <c r="F41" s="15">
+      <c r="J41" s="15">
         <v>-143916</v>
       </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
         <v>42337</v>
       </c>
-      <c r="H41" s="15">
+      <c r="L41" s="15">
         <v>-300483</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M41" s="15">
+        <v>-189138</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="11">
@@ -1468,10 +2006,25 @@
       <c r="H42" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="11">
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <v>0</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15">
@@ -1489,10 +2042,25 @@
       <c r="H43" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
+        <v>0</v>
+      </c>
+      <c r="M43" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11">
@@ -1510,10 +2078,25 @@
       <c r="H44" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="11">
+        <v>0</v>
+      </c>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11">
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
@@ -1531,10 +2114,25 @@
       <c r="H45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="15">
+        <v>0</v>
+      </c>
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1552,10 +2150,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1573,10 +2186,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1594,10 +2222,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1615,155 +2258,275 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>-69161</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-348044</v>
+      </c>
+      <c r="F50" s="11">
+        <v>-27315</v>
+      </c>
+      <c r="G50" s="11">
+        <v>-19504</v>
+      </c>
+      <c r="H50" s="11">
         <v>-82945</v>
       </c>
-      <c r="E50" s="11">
+      <c r="I50" s="11">
         <v>-531388</v>
       </c>
-      <c r="F50" s="11">
+      <c r="J50" s="11">
         <v>-26062</v>
       </c>
-      <c r="G50" s="11">
+      <c r="K50" s="11">
         <v>-13767</v>
       </c>
-      <c r="H50" s="11">
+      <c r="L50" s="11">
         <v>-4686</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M50" s="11">
+        <v>-620264</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="16" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
+        <v>-727325</v>
+      </c>
+      <c r="E51" s="17">
+        <v>-200078</v>
+      </c>
+      <c r="F51" s="17">
+        <v>-314456</v>
+      </c>
+      <c r="G51" s="17">
+        <v>-320316</v>
+      </c>
+      <c r="H51" s="17">
         <v>-93876</v>
       </c>
-      <c r="E51" s="17">
+      <c r="I51" s="17">
         <v>986289</v>
       </c>
-      <c r="F51" s="17">
+      <c r="J51" s="17">
         <v>326766</v>
       </c>
-      <c r="G51" s="17">
+      <c r="K51" s="17">
         <v>-2766705</v>
       </c>
-      <c r="H51" s="17">
+      <c r="L51" s="17">
         <v>392525</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M51" s="17">
+        <v>1175958</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
+        <v>44219</v>
+      </c>
+      <c r="E52" s="19">
+        <v>235591</v>
+      </c>
+      <c r="F52" s="19">
+        <v>-149854</v>
+      </c>
+      <c r="G52" s="19">
+        <v>25522</v>
+      </c>
+      <c r="H52" s="19">
         <v>248546</v>
       </c>
-      <c r="E52" s="19">
+      <c r="I52" s="19">
         <v>187440</v>
       </c>
-      <c r="F52" s="19">
+      <c r="J52" s="19">
         <v>-331255</v>
       </c>
-      <c r="G52" s="19">
+      <c r="K52" s="19">
         <v>-275750</v>
       </c>
-      <c r="H52" s="19">
+      <c r="L52" s="19">
         <v>-36315</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M52" s="19">
+        <v>379773</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
+        <v>269407</v>
+      </c>
+      <c r="E53" s="15">
+        <v>313961</v>
+      </c>
+      <c r="F53" s="15">
+        <v>546296</v>
+      </c>
+      <c r="G53" s="15">
+        <v>396442</v>
+      </c>
+      <c r="H53" s="15">
         <v>421964</v>
       </c>
-      <c r="E53" s="15">
+      <c r="I53" s="15">
         <v>670510</v>
       </c>
-      <c r="F53" s="15">
+      <c r="J53" s="15">
         <v>858462</v>
       </c>
-      <c r="G53" s="15">
+      <c r="K53" s="15">
         <v>527207</v>
       </c>
-      <c r="H53" s="15">
+      <c r="L53" s="15">
         <v>251457</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M53" s="15">
+        <v>215142</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>0</v>
+        <v>-1496</v>
       </c>
       <c r="E54" s="11">
+        <v>-3256</v>
+      </c>
+      <c r="F54" s="11">
+        <v>0</v>
+      </c>
+      <c r="G54" s="11">
+        <v>0</v>
+      </c>
+      <c r="H54" s="11">
+        <v>0</v>
+      </c>
+      <c r="I54" s="11">
         <v>512</v>
       </c>
-      <c r="F54" s="11">
-        <v>0</v>
-      </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-      <c r="H54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J54" s="11">
+        <v>0</v>
+      </c>
+      <c r="K54" s="11">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11">
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
+        <v>313961</v>
+      </c>
+      <c r="E55" s="17">
+        <v>546296</v>
+      </c>
+      <c r="F55" s="17">
+        <v>396442</v>
+      </c>
+      <c r="G55" s="17">
+        <v>421964</v>
+      </c>
+      <c r="H55" s="17">
         <v>670510</v>
       </c>
-      <c r="E55" s="17">
+      <c r="I55" s="17">
         <v>858462</v>
       </c>
-      <c r="F55" s="17">
+      <c r="J55" s="17">
         <v>527207</v>
       </c>
-      <c r="G55" s="17">
+      <c r="K55" s="17">
         <v>251457</v>
       </c>
-      <c r="H55" s="17">
+      <c r="L55" s="17">
         <v>215142</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="M55" s="17">
+        <v>594915</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
         <v>0</v>
       </c>
       <c r="E56" s="11">
+        <v>0</v>
+      </c>
+      <c r="F56" s="11">
+        <v>0</v>
+      </c>
+      <c r="G56" s="11">
+        <v>0</v>
+      </c>
+      <c r="H56" s="11">
+        <v>0</v>
+      </c>
+      <c r="I56" s="11">
         <v>400657</v>
       </c>
-      <c r="F56" s="11">
-        <v>0</v>
-      </c>
-      <c r="G56" s="11">
-        <v>0</v>
-      </c>
-      <c r="H56" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="J56" s="11">
+        <v>0</v>
+      </c>
+      <c r="K56" s="11">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11">
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1771,6 +2534,11 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/kaghaz/chekapa/cashflow/quarterly.xlsx
+++ b/database/industries/kaghaz/chekapa/cashflow/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cashflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344E9CD-060B-444B-8E41-8F342C155904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5F166-82A4-44A6-80F3-19D76F8CAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/05</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/08</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل چهارم منتهی به 1401/08</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-06-31 (3)</t>
-  </si>
-  <si>
     <t>1400-12-09 (9)</t>
   </si>
   <si>
@@ -85,10 +82,10 @@
     <t>1401-06-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-24 (8)</t>
-  </si>
-  <si>
-    <t>1400-12-28</t>
+    <t>1401-12-13 (9)</t>
+  </si>
+  <si>
+    <t>1401-12-28 (2)</t>
   </si>
   <si>
     <t>1401-05-12 (2)</t>
@@ -97,7 +94,10 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-11-24</t>
+    <t>1401-12-28 (3)</t>
+  </si>
+  <si>
+    <t>1401-12-28</t>
   </si>
   <si>
     <t>فعالیتهای عملیاتی</t>
@@ -726,19 +726,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="12" width="29" customWidth="1"/>
-    <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="5" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="31" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -752,7 +752,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -768,7 +768,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -784,7 +784,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -798,7 +798,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -814,7 +814,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -830,7 +830,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -844,7 +844,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,7 +916,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -930,7 +930,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -946,115 +946,115 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
-        <v>802533</v>
+        <v>902520</v>
       </c>
       <c r="E12" s="15">
-        <v>902520</v>
+        <v>179607</v>
       </c>
       <c r="F12" s="15">
-        <v>179607</v>
+        <v>755968</v>
       </c>
       <c r="G12" s="15">
-        <v>755968</v>
+        <v>374652</v>
       </c>
       <c r="H12" s="15">
-        <v>374652</v>
+        <v>40445</v>
       </c>
       <c r="I12" s="15">
-        <v>40445</v>
+        <v>197836</v>
       </c>
       <c r="J12" s="15">
-        <v>197836</v>
+        <v>2917191</v>
       </c>
       <c r="K12" s="15">
-        <v>2917191</v>
+        <v>-1649921</v>
       </c>
       <c r="L12" s="15">
-        <v>-1649921</v>
+        <v>1140784</v>
       </c>
       <c r="M12" s="15">
-        <v>1140784</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>215130</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>-30500</v>
+        <v>-3772</v>
       </c>
       <c r="E13" s="11">
-        <v>-3772</v>
+        <v>-15352</v>
       </c>
       <c r="F13" s="11">
-        <v>-15352</v>
+        <v>-64648</v>
       </c>
       <c r="G13" s="11">
-        <v>-64648</v>
+        <v>-10000</v>
       </c>
       <c r="H13" s="11">
-        <v>-10000</v>
+        <v>-86550</v>
       </c>
       <c r="I13" s="11">
-        <v>-86550</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
-        <v>0</v>
+        <v>-280600</v>
       </c>
       <c r="K13" s="11">
-        <v>-280600</v>
+        <v>362840</v>
       </c>
       <c r="L13" s="11">
-        <v>362840</v>
+        <v>-344040</v>
       </c>
       <c r="M13" s="11">
-        <v>-344040</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17">
-        <v>772033</v>
+        <v>898748</v>
       </c>
       <c r="E14" s="17">
-        <v>898748</v>
+        <v>164255</v>
       </c>
       <c r="F14" s="17">
-        <v>164255</v>
+        <v>691320</v>
       </c>
       <c r="G14" s="17">
-        <v>691320</v>
+        <v>364652</v>
       </c>
       <c r="H14" s="17">
-        <v>364652</v>
+        <v>-46105</v>
       </c>
       <c r="I14" s="17">
-        <v>-46105</v>
+        <v>197836</v>
       </c>
       <c r="J14" s="17">
-        <v>197836</v>
+        <v>2636591</v>
       </c>
       <c r="K14" s="17">
-        <v>2636591</v>
+        <v>-1287081</v>
       </c>
       <c r="L14" s="17">
-        <v>-1287081</v>
+        <v>796744</v>
       </c>
       <c r="M14" s="17">
-        <v>796744</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>215130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1070,16 +1070,16 @@
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
-        <v>0</v>
+        <v>152735</v>
       </c>
       <c r="E16" s="15">
-        <v>152735</v>
+        <v>0</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1094,55 +1094,55 @@
         <v>0</v>
       </c>
       <c r="J16" s="15">
-        <v>0</v>
+        <v>8900</v>
       </c>
       <c r="K16" s="15">
-        <v>8900</v>
+        <v>0</v>
       </c>
       <c r="L16" s="15">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="M16" s="15">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
-        <v>-2640</v>
+        <v>-217157</v>
       </c>
       <c r="E17" s="11">
-        <v>-217157</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
-        <v>0</v>
+        <v>-7481</v>
       </c>
       <c r="G17" s="11">
-        <v>-7481</v>
+        <v>-1320</v>
       </c>
       <c r="H17" s="11">
-        <v>-1320</v>
+        <v>-2372</v>
       </c>
       <c r="I17" s="11">
-        <v>-2372</v>
+        <v>0</v>
       </c>
       <c r="J17" s="11">
-        <v>0</v>
+        <v>-153265</v>
       </c>
       <c r="K17" s="11">
-        <v>-153265</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
+        <v>-1096837</v>
       </c>
       <c r="M17" s="11">
-        <v>-1096837</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
-        <v>800</v>
+        <v>-800</v>
       </c>
       <c r="E19" s="11">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="F19" s="11">
         <v>0</v>
@@ -1214,43 +1214,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="E20" s="15">
-        <v>-98</v>
+        <v>0</v>
       </c>
       <c r="F20" s="15">
-        <v>0</v>
+        <v>-921</v>
       </c>
       <c r="G20" s="15">
-        <v>-921</v>
+        <v>-394</v>
       </c>
       <c r="H20" s="15">
-        <v>-394</v>
+        <v>-407</v>
       </c>
       <c r="I20" s="15">
-        <v>-407</v>
+        <v>0</v>
       </c>
       <c r="J20" s="15">
-        <v>0</v>
+        <v>-2280</v>
       </c>
       <c r="K20" s="15">
-        <v>-2280</v>
+        <v>0</v>
       </c>
       <c r="L20" s="15">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="M20" s="15">
-        <v>-67</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>36</v>
       </c>
@@ -1262,31 +1262,31 @@
         <v>0</v>
       </c>
       <c r="F21" s="11">
-        <v>0</v>
+        <v>-337913</v>
       </c>
       <c r="G21" s="11">
-        <v>-337913</v>
+        <v>-22034</v>
       </c>
       <c r="H21" s="11">
-        <v>-22034</v>
+        <v>-788432</v>
       </c>
       <c r="I21" s="11">
-        <v>-788432</v>
+        <v>-858462</v>
       </c>
       <c r="J21" s="11">
-        <v>-858462</v>
+        <v>221</v>
       </c>
       <c r="K21" s="11">
-        <v>221</v>
+        <v>858241</v>
       </c>
       <c r="L21" s="11">
-        <v>858241</v>
+        <v>-510513</v>
       </c>
       <c r="M21" s="11">
-        <v>-510513</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-359119</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="14" t="s">
         <v>37</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
@@ -1358,16 +1358,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15">
-        <v>0</v>
+        <v>-402237</v>
       </c>
       <c r="E24" s="15">
-        <v>-402237</v>
+        <v>0</v>
       </c>
       <c r="F24" s="15">
         <v>0</v>
@@ -1376,10 +1376,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="15">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="I24" s="15">
-        <v>-39</v>
+        <v>0</v>
       </c>
       <c r="J24" s="15">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>40</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="14" t="s">
         <v>41</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="14" t="s">
         <v>43</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>44</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="14" t="s">
         <v>45</v>
       </c>
@@ -1610,115 +1610,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11">
-        <v>1351</v>
+        <v>4478</v>
       </c>
       <c r="E31" s="11">
-        <v>4478</v>
+        <v>347</v>
       </c>
       <c r="F31" s="11">
-        <v>347</v>
+        <v>833</v>
       </c>
       <c r="G31" s="11">
-        <v>833</v>
+        <v>1518</v>
       </c>
       <c r="H31" s="11">
-        <v>1518</v>
+        <v>38506</v>
       </c>
       <c r="I31" s="11">
-        <v>38506</v>
+        <v>2605</v>
       </c>
       <c r="J31" s="11">
-        <v>2605</v>
+        <v>788</v>
       </c>
       <c r="K31" s="11">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="L31" s="11">
-        <v>0</v>
+        <v>14211</v>
       </c>
       <c r="M31" s="11">
-        <v>14211</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="16" t="s">
         <v>47</v>
       </c>
       <c r="C32" s="17"/>
       <c r="D32" s="17">
-        <v>-489</v>
+        <v>-463079</v>
       </c>
       <c r="E32" s="17">
-        <v>-463079</v>
+        <v>347</v>
       </c>
       <c r="F32" s="17">
-        <v>347</v>
+        <v>-345482</v>
       </c>
       <c r="G32" s="17">
-        <v>-345482</v>
+        <v>-22230</v>
       </c>
       <c r="H32" s="17">
-        <v>-22230</v>
+        <v>-752744</v>
       </c>
       <c r="I32" s="17">
-        <v>-752744</v>
+        <v>-855857</v>
       </c>
       <c r="J32" s="17">
-        <v>-855857</v>
+        <v>-145636</v>
       </c>
       <c r="K32" s="17">
-        <v>-145636</v>
+        <v>858241</v>
       </c>
       <c r="L32" s="17">
-        <v>858241</v>
+        <v>-1592929</v>
       </c>
       <c r="M32" s="17">
-        <v>-1592929</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-359119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="18" t="s">
         <v>48</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="19">
-        <v>771544</v>
+        <v>435669</v>
       </c>
       <c r="E33" s="19">
-        <v>435669</v>
+        <v>164602</v>
       </c>
       <c r="F33" s="19">
-        <v>164602</v>
+        <v>345838</v>
       </c>
       <c r="G33" s="19">
-        <v>345838</v>
+        <v>342422</v>
       </c>
       <c r="H33" s="19">
-        <v>342422</v>
+        <v>-798849</v>
       </c>
       <c r="I33" s="19">
-        <v>-798849</v>
+        <v>-658021</v>
       </c>
       <c r="J33" s="19">
-        <v>-658021</v>
+        <v>2490955</v>
       </c>
       <c r="K33" s="19">
-        <v>2490955</v>
+        <v>-428840</v>
       </c>
       <c r="L33" s="19">
-        <v>-428840</v>
+        <v>-796185</v>
       </c>
       <c r="M33" s="19">
-        <v>-796185</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-143989</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>49</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>50</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>51</v>
       </c>
@@ -1778,44 +1778,44 @@
       <c r="D36" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M36" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11">
+        <v>0</v>
+      </c>
+      <c r="G36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15">
-        <v>0</v>
+        <v>54237</v>
       </c>
       <c r="E37" s="15">
-        <v>54237</v>
+        <v>0</v>
       </c>
       <c r="F37" s="15">
         <v>0</v>
@@ -1824,169 +1824,169 @@
         <v>0</v>
       </c>
       <c r="H37" s="15">
-        <v>0</v>
+        <v>1313429</v>
       </c>
       <c r="I37" s="15">
-        <v>1313429</v>
+        <v>0</v>
       </c>
       <c r="J37" s="15">
-        <v>0</v>
+        <v>59487</v>
       </c>
       <c r="K37" s="15">
-        <v>59487</v>
+        <v>37437</v>
       </c>
       <c r="L37" s="15">
-        <v>37437</v>
+        <v>-37437</v>
       </c>
       <c r="M37" s="15">
-        <v>-37437</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
-        <v>0</v>
+        <v>-428254</v>
       </c>
       <c r="E38" s="11">
-        <v>-428254</v>
+        <v>0</v>
       </c>
       <c r="F38" s="11">
-        <v>0</v>
+        <v>-880000</v>
       </c>
       <c r="G38" s="11">
-        <v>-880000</v>
+        <v>-54999</v>
       </c>
       <c r="H38" s="11">
-        <v>-54999</v>
+        <v>-912495</v>
       </c>
       <c r="I38" s="11">
-        <v>-912495</v>
+        <v>0</v>
       </c>
       <c r="J38" s="11">
-        <v>0</v>
+        <v>-151172</v>
       </c>
       <c r="K38" s="11">
-        <v>-151172</v>
+        <v>-37437</v>
       </c>
       <c r="L38" s="11">
-        <v>-37437</v>
+        <v>37437</v>
       </c>
       <c r="M38" s="11">
-        <v>37437</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15">
-        <v>195888</v>
+        <v>1838395</v>
       </c>
       <c r="E39" s="15">
-        <v>1838395</v>
+        <v>1622133</v>
       </c>
       <c r="F39" s="15">
-        <v>1622133</v>
+        <v>2425476</v>
       </c>
       <c r="G39" s="15">
-        <v>2425476</v>
+        <v>1307688</v>
       </c>
       <c r="H39" s="15">
-        <v>1307688</v>
+        <v>2318023</v>
       </c>
       <c r="I39" s="15">
-        <v>2318023</v>
+        <v>1988808</v>
       </c>
       <c r="J39" s="15">
-        <v>1988808</v>
+        <v>1564278</v>
       </c>
       <c r="K39" s="15">
-        <v>1564278</v>
+        <v>2650278</v>
       </c>
       <c r="L39" s="15">
-        <v>2650278</v>
+        <v>2724397</v>
       </c>
       <c r="M39" s="15">
-        <v>2724397</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1450128</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
-        <v>-777979</v>
+        <v>-1194420</v>
       </c>
       <c r="E40" s="11">
-        <v>-1194420</v>
+        <v>-1790378</v>
       </c>
       <c r="F40" s="11">
-        <v>-1790378</v>
+        <v>-1773317</v>
       </c>
       <c r="G40" s="11">
-        <v>-1773317</v>
+        <v>-1163623</v>
       </c>
       <c r="H40" s="11">
-        <v>-1163623</v>
+        <v>-1163268</v>
       </c>
       <c r="I40" s="11">
-        <v>-1163268</v>
+        <v>-1492064</v>
       </c>
       <c r="J40" s="11">
-        <v>-1492064</v>
+        <v>-4267868</v>
       </c>
       <c r="K40" s="11">
-        <v>-4267868</v>
+        <v>-1952584</v>
       </c>
       <c r="L40" s="11">
-        <v>-1952584</v>
+        <v>-739037</v>
       </c>
       <c r="M40" s="11">
-        <v>-739037</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1398450</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
-        <v>-76073</v>
+        <v>-121992</v>
       </c>
       <c r="E41" s="15">
-        <v>-121992</v>
+        <v>-118896</v>
       </c>
       <c r="F41" s="15">
-        <v>-118896</v>
+        <v>-72971</v>
       </c>
       <c r="G41" s="15">
-        <v>-72971</v>
+        <v>-99997</v>
       </c>
       <c r="H41" s="15">
-        <v>-99997</v>
+        <v>-38012</v>
       </c>
       <c r="I41" s="15">
-        <v>-38012</v>
+        <v>-143916</v>
       </c>
       <c r="J41" s="15">
-        <v>-143916</v>
+        <v>42337</v>
       </c>
       <c r="K41" s="15">
-        <v>42337</v>
+        <v>-300483</v>
       </c>
       <c r="L41" s="15">
-        <v>-300483</v>
+        <v>-189138</v>
       </c>
       <c r="M41" s="15">
-        <v>-189138</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-138560</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>58</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>59</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>60</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>61</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>62</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>63</v>
       </c>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>64</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>65</v>
       </c>
@@ -2274,160 +2274,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
-        <v>-69161</v>
+        <v>-348044</v>
       </c>
       <c r="E50" s="11">
-        <v>-348044</v>
+        <v>-27315</v>
       </c>
       <c r="F50" s="11">
-        <v>-27315</v>
+        <v>-19504</v>
       </c>
       <c r="G50" s="11">
-        <v>-19504</v>
+        <v>-82945</v>
       </c>
       <c r="H50" s="11">
-        <v>-82945</v>
+        <v>-531388</v>
       </c>
       <c r="I50" s="11">
-        <v>-531388</v>
+        <v>-26062</v>
       </c>
       <c r="J50" s="11">
-        <v>-26062</v>
+        <v>-13767</v>
       </c>
       <c r="K50" s="11">
-        <v>-13767</v>
+        <v>-4686</v>
       </c>
       <c r="L50" s="11">
-        <v>-4686</v>
+        <v>-620264</v>
       </c>
       <c r="M50" s="11">
-        <v>-620264</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1230</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>67</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="17">
-        <v>-727325</v>
+        <v>-200078</v>
       </c>
       <c r="E51" s="17">
-        <v>-200078</v>
+        <v>-314456</v>
       </c>
       <c r="F51" s="17">
-        <v>-314456</v>
+        <v>-320316</v>
       </c>
       <c r="G51" s="17">
-        <v>-320316</v>
+        <v>-93876</v>
       </c>
       <c r="H51" s="17">
-        <v>-93876</v>
+        <v>986289</v>
       </c>
       <c r="I51" s="17">
-        <v>986289</v>
+        <v>326766</v>
       </c>
       <c r="J51" s="17">
-        <v>326766</v>
+        <v>-2766705</v>
       </c>
       <c r="K51" s="17">
-        <v>-2766705</v>
+        <v>392525</v>
       </c>
       <c r="L51" s="17">
-        <v>392525</v>
+        <v>1175958</v>
       </c>
       <c r="M51" s="17">
-        <v>1175958</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-88112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C52" s="19"/>
       <c r="D52" s="19">
-        <v>44219</v>
+        <v>235591</v>
       </c>
       <c r="E52" s="19">
-        <v>235591</v>
+        <v>-149854</v>
       </c>
       <c r="F52" s="19">
-        <v>-149854</v>
+        <v>25522</v>
       </c>
       <c r="G52" s="19">
-        <v>25522</v>
-      </c>
-      <c r="H52" s="19">
         <v>248546</v>
       </c>
+      <c r="H52" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="I52" s="19">
-        <v>187440</v>
+        <v>-331255</v>
       </c>
       <c r="J52" s="19">
-        <v>-331255</v>
+        <v>-275750</v>
       </c>
       <c r="K52" s="19">
-        <v>-275750</v>
+        <v>-36315</v>
       </c>
       <c r="L52" s="19">
-        <v>-36315</v>
+        <v>379773</v>
       </c>
       <c r="M52" s="19">
-        <v>379773</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-232101</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
-        <v>269407</v>
+        <v>313961</v>
       </c>
       <c r="E53" s="15">
-        <v>313961</v>
+        <v>546296</v>
       </c>
       <c r="F53" s="15">
-        <v>546296</v>
+        <v>396442</v>
       </c>
       <c r="G53" s="15">
-        <v>396442</v>
+        <v>421964</v>
       </c>
       <c r="H53" s="15">
-        <v>421964</v>
+        <v>670510</v>
       </c>
       <c r="I53" s="15">
-        <v>670510</v>
+        <v>858462</v>
       </c>
       <c r="J53" s="15">
-        <v>858462</v>
+        <v>527207</v>
       </c>
       <c r="K53" s="15">
-        <v>527207</v>
+        <v>251457</v>
       </c>
       <c r="L53" s="15">
-        <v>251457</v>
+        <v>215142</v>
       </c>
       <c r="M53" s="15">
-        <v>215142</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+        <v>594915</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11">
-        <v>-1496</v>
+        <v>-3256</v>
       </c>
       <c r="E54" s="11">
-        <v>-3256</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
         <v>0</v>
@@ -2436,10 +2436,10 @@
         <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="I54" s="11">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="J54" s="11">
         <v>0</v>
@@ -2454,43 +2454,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17">
-        <v>313961</v>
+        <v>546296</v>
       </c>
       <c r="E55" s="17">
-        <v>546296</v>
+        <v>396442</v>
       </c>
       <c r="F55" s="17">
-        <v>396442</v>
+        <v>421964</v>
       </c>
       <c r="G55" s="17">
-        <v>421964</v>
+        <v>670510</v>
       </c>
       <c r="H55" s="17">
-        <v>670510</v>
+        <v>858462</v>
       </c>
       <c r="I55" s="17">
-        <v>858462</v>
+        <v>527207</v>
       </c>
       <c r="J55" s="17">
-        <v>527207</v>
+        <v>251457</v>
       </c>
       <c r="K55" s="17">
-        <v>251457</v>
+        <v>215142</v>
       </c>
       <c r="L55" s="17">
-        <v>215142</v>
+        <v>594915</v>
       </c>
       <c r="M55" s="17">
-        <v>594915</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+        <v>362814</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>72</v>
       </c>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="H56" s="11">
-        <v>0</v>
+        <v>400657</v>
       </c>
       <c r="I56" s="11">
-        <v>400657</v>
+        <v>0</v>
       </c>
       <c r="J56" s="11">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
